--- a/dozen.xlsx
+++ b/dozen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\RealDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287DFD66-59B1-4CA7-B5CB-0ED3D060E641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F7B457-CE17-45DA-A35F-2C385192194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FECC869-E903-4E18-A393-BF97D726E5EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>dozen</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t xml:space="preserve">0: eerste dataset </t>
+  </si>
+  <si>
+    <t>8.3</t>
   </si>
 </sst>
 </file>
@@ -604,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73265887-8CB8-43B9-985E-0DEC4A741AAB}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,27 +749,27 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -774,13 +777,13 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>7</v>
       </c>
     </row>

--- a/dozen.xlsx
+++ b/dozen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\RealDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F7B457-CE17-45DA-A35F-2C385192194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97E1841-90A3-4549-9995-0A22A95C4361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FECC869-E903-4E18-A393-BF97D726E5EB}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,13 +791,13 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -805,13 +805,13 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>40</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>23</v>
       </c>
     </row>
@@ -819,13 +819,13 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
     </row>

--- a/dozen.xlsx
+++ b/dozen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\RealDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97E1841-90A3-4549-9995-0A22A95C4361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0048BCC0-701F-49CD-B4D7-6EA0EA029FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FECC869-E903-4E18-A393-BF97D726E5EB}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,13 +833,13 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>18</v>
       </c>
     </row>

--- a/dozen.xlsx
+++ b/dozen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\RealDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0048BCC0-701F-49CD-B4D7-6EA0EA029FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F620F7D-2101-4F1D-80F5-A8AB1AF300C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FECC869-E903-4E18-A393-BF97D726E5EB}"/>
+    <workbookView xWindow="-22560" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{6FECC869-E903-4E18-A393-BF97D726E5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>dozen</t>
   </si>
@@ -92,9 +92,6 @@
     <t>33.5</t>
   </si>
   <si>
-    <t>13.5</t>
-  </si>
-  <si>
     <t>15.5</t>
   </si>
   <si>
@@ -131,15 +128,6 @@
     <t>20: nike</t>
   </si>
   <si>
-    <t>25.2</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
     <t>21: vans</t>
   </si>
   <si>
@@ -162,6 +150,21 @@
   </si>
   <si>
     <t>8.3</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>24.8</t>
   </si>
 </sst>
 </file>
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73265887-8CB8-43B9-985E-0DEC4A741AAB}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,16 +638,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,10 +683,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="D5" s="6">
         <v>6</v>
@@ -694,10 +697,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7">
         <v>7</v>
@@ -714,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,27 +850,27 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2">
-        <v>18</v>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7">
         <v>16</v>
       </c>
     </row>
@@ -875,27 +878,27 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2">
-        <v>17</v>
+      <c r="C19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="9">
         <v>13</v>
       </c>
     </row>
@@ -903,56 +906,56 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>11</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
+      <c r="C21" s="8">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="D22" s="9">
+        <v>18.7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="2">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9">
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
